--- a/biology/Botanique/Abrodictyum_elongatum/Abrodictyum_elongatum.xlsx
+++ b/biology/Botanique/Abrodictyum_elongatum/Abrodictyum_elongatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum elongatum est une fougère de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus des caractéristiques du genre, le stipe ainsi que le rachis est nu et le limbe des frondes est divisé 2 fois.
 Les sores sont nombreux et disposés régulièrement sur la face inférieure du limbe, souvent en double rangée.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum elongatum est une espèce terrestre de l'Australasie : Australie (nord du Queensland),  Nouvelle-Zélande (île du Nord),  Nouvelle-Calédonie, Fidji et Vanuatu.
 </t>
@@ -576,12 +592,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1836, Allan Cunningham décrit cette espèce à partir d'un exemplaire collecté dans l'île du Nord de Nouvelle-Zélande[1].
-En 1938, Edwin Bingham Copeland la place dans le genre Selenodesmium : Selenodesmium elongatum (A.Cunn.) Copel.[2]
-En 1968, Conrad Vernon Morton la place dans la section Pachychaetum du sous-genre Pachychaetum du genre Trichomanes[3].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la classent dans le sous-genre Pachychaetum du genre Abrodictum[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1836, Allan Cunningham décrit cette espèce à partir d'un exemplaire collecté dans l'île du Nord de Nouvelle-Zélande.
+En 1938, Edwin Bingham Copeland la place dans le genre Selenodesmium : Selenodesmium elongatum (A.Cunn.) Copel.
+En 1968, Conrad Vernon Morton la place dans la section Pachychaetum du sous-genre Pachychaetum du genre Trichomanes.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la classent dans le sous-genre Pachychaetum du genre Abrodictum.
 Cette espèce est classée dans le sous-genre Pachycheatum.
 Elle compte quelques synonymes :
 Selenodesmium elongatum (A.Cunn.) Copel.
